--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/050_InsertImages.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/050_InsertImages.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageDemo" sheetId="1" r:id="R4a465aa004aa458d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageDemo" sheetId="1" r:id="R5cf7e69f4a9e4e15"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -119,7 +119,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R8a675a25a3114e0c">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R17cba1f634214d4e">
           <a:extLst/>
         </a:blip>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -154,7 +154,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R418d4402e0214e03">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R80af76214b8048e1">
           <a:extLst/>
         </a:blip>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -247,6 +247,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R752748de4df34708"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R6ea1cdb0033b4172"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/050_InsertImages.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/050_InsertImages.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageDemo" sheetId="1" r:id="R5cf7e69f4a9e4e15"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageDemo" sheetId="1" r:id="R989e3ed3658945fe"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -119,7 +119,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R17cba1f634214d4e">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="Re497ce3f7704453a">
           <a:extLst/>
         </a:blip>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -154,7 +154,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R80af76214b8048e1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="Rcb5f17efcd5547d4">
           <a:extLst/>
         </a:blip>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -247,6 +247,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R6ea1cdb0033b4172"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R1b5016f8c5864de2"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/050_InsertImages.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/050_InsertImages.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageDemo" sheetId="1" r:id="R989e3ed3658945fe"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageDemo" sheetId="1" r:id="R5a5d58ac32f14a4c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -119,7 +119,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="Re497ce3f7704453a">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R31cc276e46cf486c">
           <a:extLst/>
         </a:blip>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -154,7 +154,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="Rcb5f17efcd5547d4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R024709a2ebb34e10">
           <a:extLst/>
         </a:blip>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -247,6 +247,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R1b5016f8c5864de2"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R961b993b36324ef8"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/050_InsertImages.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/050_InsertImages.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageDemo" sheetId="1" r:id="R5a5d58ac32f14a4c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageDemo" sheetId="1" r:id="R2bb6a49c67814d15"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -119,7 +119,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R31cc276e46cf486c">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R77a34421b4c1496f">
           <a:extLst/>
         </a:blip>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -154,7 +154,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R024709a2ebb34e10">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="Re11ca1e656884d92">
           <a:extLst/>
         </a:blip>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -247,6 +247,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R961b993b36324ef8"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rf7cdb0e3765f47b8"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/050_InsertImages.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/050_InsertImages.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageDemo" sheetId="1" r:id="R2bb6a49c67814d15"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageDemo" sheetId="1" r:id="R32b6b3d00e4849c0"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -119,7 +119,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R77a34421b4c1496f">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="Rf2d3e9f866c049a0">
           <a:extLst/>
         </a:blip>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -154,7 +154,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="Re11ca1e656884d92">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R23f79cf57bae4122">
           <a:extLst/>
         </a:blip>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -247,6 +247,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rf7cdb0e3765f47b8"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rea6ca60ddc154ae7"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/050_InsertImages.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/050_InsertImages.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageDemo" sheetId="1" r:id="R32b6b3d00e4849c0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageDemo" sheetId="1" r:id="Ra8cc53938c194d51"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -119,7 +119,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="Rf2d3e9f866c049a0">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="Rc500c6fc474c4d63">
           <a:extLst/>
         </a:blip>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -154,7 +154,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R23f79cf57bae4122">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="Ree661be6d3ad42b8">
           <a:extLst/>
         </a:blip>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -247,6 +247,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rea6ca60ddc154ae7"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R8acb7acf71e749e4"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/050_InsertImages.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/050_InsertImages.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageDemo" sheetId="1" r:id="Ra8cc53938c194d51"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageDemo" sheetId="1" r:id="R6767a0e5e5024add"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -119,7 +119,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="Rc500c6fc474c4d63">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R408fcd7bb6b7423b">
           <a:extLst/>
         </a:blip>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -154,7 +154,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="Ree661be6d3ad42b8">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R6d657cd81c4645aa">
           <a:extLst/>
         </a:blip>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -247,6 +247,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R8acb7acf71e749e4"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R1f264747a9d74c49"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/050_InsertImages.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/050_InsertImages.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageDemo" sheetId="1" r:id="R6767a0e5e5024add"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageDemo" sheetId="1" r:id="Ra3040c9b3c7e4865"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -119,7 +119,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R408fcd7bb6b7423b">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R55920df86ac942a3">
           <a:extLst/>
         </a:blip>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -154,7 +154,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R6d657cd81c4645aa">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="Rc3a6f57091da461a">
           <a:extLst/>
         </a:blip>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -247,6 +247,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R1f264747a9d74c49"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R2df9c81a93264114"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/050_InsertImages.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/050_InsertImages.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageDemo" sheetId="1" r:id="Ra3040c9b3c7e4865"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageDemo" sheetId="1" r:id="R3be6681a053240ed"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -119,7 +119,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R55920df86ac942a3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R1b72f052e6b34fb7">
           <a:extLst/>
         </a:blip>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -154,7 +154,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="Rc3a6f57091da461a">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="Rdcf6a88938814cee">
           <a:extLst/>
         </a:blip>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -247,6 +247,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R2df9c81a93264114"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rabd58737b9e34c2b"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/050_InsertImages.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/050_InsertImages.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageDemo" sheetId="1" r:id="R3be6681a053240ed"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageDemo" sheetId="1" r:id="Rde89e2ada3e04e7e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -119,7 +119,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R1b72f052e6b34fb7">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="Rd0ce7fa4ceef4f02">
           <a:extLst/>
         </a:blip>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -154,7 +154,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="Rdcf6a88938814cee">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R034cce1b6e2e49a6">
           <a:extLst/>
         </a:blip>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -247,6 +247,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rabd58737b9e34c2b"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R4ac0e39dea7f4168"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/050_InsertImages.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/050_InsertImages.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageDemo" sheetId="1" r:id="Rde89e2ada3e04e7e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageDemo" sheetId="1" r:id="R513e457c1d2e46c7"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,24 +30,24 @@
       <x:b/>
       <x:sz val="18"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:sz val="14"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">
@@ -119,7 +119,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="Rd0ce7fa4ceef4f02">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R63208a42656d450a">
           <a:extLst/>
         </a:blip>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -154,7 +154,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R034cce1b6e2e49a6">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R42e97cf5ec834738">
           <a:extLst/>
         </a:blip>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -247,6 +247,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R4ac0e39dea7f4168"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rd5f8a02604044bc5"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/050_InsertImages.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/050_InsertImages.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageDemo" sheetId="1" r:id="R513e457c1d2e46c7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageDemo" sheetId="1" r:id="R284ff39873674624"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,24 +30,24 @@
       <x:b/>
       <x:sz val="18"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:sz val="14"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">
@@ -119,7 +119,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R63208a42656d450a">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R729dbb9c9a094d91">
           <a:extLst/>
         </a:blip>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -154,7 +154,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R42e97cf5ec834738">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="Ra178ebc499e94747">
           <a:extLst/>
         </a:blip>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -247,6 +247,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rd5f8a02604044bc5"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R23200980e24c47d2"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/050_InsertImages.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/050_InsertImages.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageDemo" sheetId="1" r:id="R284ff39873674624"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageDemo" sheetId="1" r:id="Re9760affeee44e69"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -119,7 +119,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R729dbb9c9a094d91">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R9a94ca90315d4189">
           <a:extLst/>
         </a:blip>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -154,7 +154,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="Ra178ebc499e94747">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R9bdb996b74cb4bd0">
           <a:extLst/>
         </a:blip>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -247,6 +247,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R23200980e24c47d2"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rd261a135b1794d2d"/>
 </x:worksheet>
 </file>